--- a/mvp/шопінг меню 1.xlsx
+++ b/mvp/шопінг меню 1.xlsx
@@ -452,7 +452,7 @@
         <v>32500</v>
       </c>
       <c r="C2" t="n">
-        <v>425.24</v>
+        <v>425.2</v>
       </c>
       <c r="D2" t="n">
         <v>258.9</v>
@@ -506,10 +506,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.646129244661838</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>3.089996137504829</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.939516508324711</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.931247585940518</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>37.62581130655629</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>7.724990343762071</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>2875</v>
       </c>
       <c r="C8" t="n">
-        <v>18.1125</v>
+        <v>18.1</v>
       </c>
       <c r="D8" t="n">
         <v>6.3</v>
       </c>
       <c r="E8" t="n">
-        <v>4.259359420562506</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>2.433371958285052</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -610,16 +610,16 @@
         <v>250</v>
       </c>
       <c r="C9" t="n">
-        <v>8.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>2.057661555827297</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>13.51873310158362</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -632,16 +632,16 @@
         <v>125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002939516508324711</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03862495171881036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -654,16 +654,16 @@
         <v>1875</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8125</v>
+        <v>17.8</v>
       </c>
       <c r="D11" t="n">
         <v>9.5</v>
       </c>
       <c r="E11" t="n">
-        <v>4.188811024362713</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>3.669370413286984</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -676,16 +676,16 @@
         <v>2025</v>
       </c>
       <c r="C12" t="n">
-        <v>10.53</v>
+        <v>10.5</v>
       </c>
       <c r="D12" t="n">
         <v>5.2</v>
       </c>
       <c r="E12" t="n">
-        <v>2.476248706612736</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2.008497489378139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -698,16 +698,16 @@
         <v>750</v>
       </c>
       <c r="C13" t="n">
-        <v>15.375</v>
+        <v>15.4</v>
       </c>
       <c r="D13" t="n">
         <v>20.5</v>
       </c>
       <c r="E13" t="n">
-        <v>3.615605305239394</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>7.918115102356123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -720,16 +720,16 @@
         <v>975</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8225</v>
+        <v>10.8</v>
       </c>
       <c r="D14" t="n">
         <v>11.1</v>
       </c>
       <c r="E14" t="n">
-        <v>2.545033392907535</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>4.28736964078795</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -742,16 +742,16 @@
         <v>375</v>
       </c>
       <c r="C15" t="n">
-        <v>11.325</v>
+        <v>11.3</v>
       </c>
       <c r="D15" t="n">
         <v>30.2</v>
       </c>
       <c r="E15" t="n">
-        <v>2.663201956542188</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>11.66473541908073</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -770,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7054839619979306</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3.089996137504829</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -792,10 +792,10 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>35.27419809989653</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>38.62495171881036</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
